--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="39">
-  <si>
-    <t>index.html</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="38">
   <si>
     <t>test2.html</t>
   </si>
@@ -140,7 +137,7 @@
     <t>rtjr</t>
   </si>
   <si>
-    <t>index2.html</t>
+    <t>test1.html</t>
   </si>
 </sst>
 </file>
@@ -510,7 +507,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,158 +517,158 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -679,279 +676,279 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
